--- a/src/ictal_symptoms_zeft.xlsx
+++ b/src/ictal_symptoms_zeft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosra\yosra1\etudes\2A\S7\PI\studysession\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402AEE60-534F-4960-B6AC-41BD70A1EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41D610-95B9-4814-A734-3CA7444FF92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="136">
   <si>
     <t>Astasia</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,6 +1576,9 @@
       <c r="D55" t="s">
         <v>91</v>
       </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
